--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,49 +46,52 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>paint</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>missing</t>
+    <t>apart</t>
   </si>
   <si>
     <t>plastic</t>
@@ -97,21 +100,15 @@
     <t>difficult</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
@@ -127,75 +124,81 @@
     <t>would</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>3</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>one</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -220,16 +223,19 @@
     <t>best</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
     <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>fun</t>
@@ -607,7 +613,7 @@
         <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,13 +695,13 @@
         <v>58</v>
       </c>
       <c r="K3">
-        <v>0.8</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L3">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M3">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -707,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -715,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -733,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K4">
-        <v>0.7857142857142857</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.734375</v>
+        <v>0.7475728155339806</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K5">
-        <v>0.7204301075268817</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L5">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -839,13 +845,13 @@
         <v>61</v>
       </c>
       <c r="K6">
-        <v>0.6226415094339622</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -857,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -865,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7311827956989247</v>
+        <v>0.71875</v>
       </c>
       <c r="C7">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -883,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K7">
-        <v>0.515625</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -915,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6959459459459459</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C8">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D8">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K8">
-        <v>0.4492753623188406</v>
+        <v>0.53125</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -957,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -965,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6941747572815534</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K9">
-        <v>0.3795081967213115</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="L9">
-        <v>463</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>463</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1007,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>757</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1015,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6578947368421053</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1033,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K10">
-        <v>0.3256814921090387</v>
+        <v>0.3713114754098361</v>
       </c>
       <c r="L10">
-        <v>227</v>
+        <v>453</v>
       </c>
       <c r="M10">
-        <v>227</v>
+        <v>453</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1057,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>470</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1065,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6458333333333334</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1083,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K11">
-        <v>0.2966804979253112</v>
+        <v>0.3247126436781609</v>
       </c>
       <c r="L11">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="M11">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1104,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>339</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5636363636363636</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1133,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K12">
-        <v>0.2583333333333334</v>
+        <v>0.3029045643153527</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1157,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>89</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1165,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5476190476190477</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1183,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K13">
-        <v>0.2349397590361446</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1207,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1215,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5462184873949579</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C14">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1233,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K14">
-        <v>0.1926605504587156</v>
+        <v>0.2171253822629969</v>
       </c>
       <c r="L14">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M14">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1257,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1265,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5304347826086957</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C15">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D15">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1283,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K15">
-        <v>0.164021164021164</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1307,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1315,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5185185185185185</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1333,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K16">
-        <v>0.1164658634538153</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1357,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>220</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1365,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5180722891566265</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1383,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K17">
-        <v>0.1086765994741455</v>
+        <v>0.1285140562248996</v>
       </c>
       <c r="L17">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1407,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1017</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1415,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1433,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K18">
-        <v>0.06943543153796236</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="L18">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="M18">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1457,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1434</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1465,13 +1471,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4888888888888889</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1483,7 +1489,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>45</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19">
+        <v>0.1156879929886065</v>
+      </c>
+      <c r="L19">
+        <v>132</v>
+      </c>
+      <c r="M19">
+        <v>132</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1009</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,13 +1521,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4488188976377953</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="C20">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D20">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1509,7 +1539,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20">
+        <v>0.04808317089018843</v>
+      </c>
+      <c r="L20">
+        <v>74</v>
+      </c>
+      <c r="M20">
+        <v>76</v>
+      </c>
+      <c r="N20">
+        <v>0.97</v>
+      </c>
+      <c r="O20">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1465</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1517,13 +1571,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4157303370786517</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1535,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1543,13 +1597,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1561,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1569,13 +1623,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3809523809523809</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1587,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1595,13 +1649,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.359375</v>
+        <v>0.3762376237623762</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1613,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1621,13 +1675,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.359375</v>
+        <v>0.375</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1639,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1647,7 +1701,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3465346534653465</v>
+        <v>0.3317535545023697</v>
       </c>
       <c r="C26">
         <v>70</v>
@@ -1665,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1673,13 +1727,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3270142180094787</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C27">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1691,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>142</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1699,13 +1753,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2564102564102564</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1717,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1725,13 +1779,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2448979591836735</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1743,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>74</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1751,13 +1805,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2371134020618557</v>
+        <v>0.2240356083086053</v>
       </c>
       <c r="C30">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="D30">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1769,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>148</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1777,13 +1831,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2225519287833828</v>
+        <v>0.2183544303797468</v>
       </c>
       <c r="C31">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="D31">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1795,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>524</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1803,13 +1857,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2065217391304348</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C32">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D32">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1821,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1829,13 +1883,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2056962025316456</v>
+        <v>0.215</v>
       </c>
       <c r="C33">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D33">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1847,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>251</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1855,13 +1909,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2</v>
+        <v>0.2088607594936709</v>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D34">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1873,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>160</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1881,13 +1935,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1962025316455696</v>
+        <v>0.1974522292993631</v>
       </c>
       <c r="C35">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D35">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1899,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>254</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1907,25 +1961,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1873198847262248</v>
+        <v>0.1872246696035242</v>
       </c>
       <c r="C36">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D36">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E36">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>282</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1933,13 +1987,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1869158878504673</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="C37">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D37">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1951,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>174</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1959,13 +2013,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1785714285714286</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1977,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1985,13 +2039,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.178343949044586</v>
+        <v>0.1385767790262172</v>
       </c>
       <c r="C39">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2003,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>129</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2011,13 +2065,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.171875</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2029,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>106</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2037,13 +2091,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1657142857142857</v>
+        <v>0.1350574712643678</v>
       </c>
       <c r="C41">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D41">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2055,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>146</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2063,13 +2117,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1541850220264317</v>
+        <v>0.1308900523560209</v>
       </c>
       <c r="C42">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D42">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2081,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>384</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2089,13 +2143,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1397260273972603</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="C43">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2107,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>314</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2115,25 +2169,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.125</v>
+        <v>0.1093117408906883</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D44">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2141,13 +2195,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.09703947368421052</v>
+        <v>0.1041095890410959</v>
       </c>
       <c r="C45">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D45">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2159,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>549</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2167,25 +2221,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0898876404494382</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D46">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>243</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2193,25 +2247,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0779510022271715</v>
+        <v>0.07366071428571429</v>
       </c>
       <c r="C47">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D47">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2219,25 +2273,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.07242990654205607</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="C48">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D48">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E48">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="F48">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>397</v>
+        <v>564</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2245,25 +2299,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.06478873239436619</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D49">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>332</v>
+        <v>399</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2271,25 +2325,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04122137404580153</v>
+        <v>0.04441624365482234</v>
       </c>
       <c r="C50">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D50">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>628</v>
+        <v>753</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2297,25 +2351,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.03807106598984772</v>
+        <v>0.03828483920367534</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D51">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E51">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F51">
-        <v>0.83</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>758</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
